--- a/src/EmisTracking.WebApp/Выбросы.xlsx
+++ b/src/EmisTracking.WebApp/Выбросы.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vadzim_Zemchonak\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\GIT\emission-tracking-app\src\EmisTracking.WebApi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E01DD7-A729-443E-90A4-3CCC2E4AB318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCAF640-BEA8-4052-AF71-790BD3139C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60F42841-1384-417D-B2E3-8D170B1FAF34}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
